--- a/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12275" windowHeight="8952"/>
+    <workbookView windowWidth="12840" windowHeight="8735"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -687,7 +687,7 @@
     <t>桃花岛</t>
   </si>
   <si>
-    <t>75_taohuadao</t>
+    <t>75_taohuadao2</t>
   </si>
   <si>
     <t>霹雳堂</t>
@@ -1875,16 +1875,16 @@
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9.87962962962963" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.3703703703704" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5555555555556" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.4166666666667" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="7" width="11.1203703703704" style="2" customWidth="1"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12840" windowHeight="8735"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -1875,9 +1875,9 @@
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -5973,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23685" windowHeight="14190"/>
+    <workbookView windowWidth="12750" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>高昌迷宫</t>
   </si>
   <si>
-    <t>14_gaochangmigong</t>
+    <t>14_gaochangmigong2</t>
   </si>
   <si>
     <t>Leave:15,Leave2:101</t>
@@ -1875,9 +1875,9 @@
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2593,7 +2593,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" ht="13.5" spans="1:28">
+    <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" ht="13.5" spans="1:28">
       <c r="A25" s="3">
         <v>21</v>
       </c>

--- a/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/场景.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12750" windowHeight="11280"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -766,7 +766,7 @@
     </r>
   </si>
   <si>
-    <t>1000_daditu</t>
+    <t>1000_daditu1</t>
   </si>
   <si>
     <t>WORLDMAP</t>
@@ -1875,9 +1875,9 @@
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2593,7 +2593,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="13.5" spans="1:28">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" ht="13.5" spans="1:47">
+    <row r="88" spans="1:47">
       <c r="A88" s="3">
         <v>1000</v>
       </c>
